--- a/Data/Tables/ET3.xlsx
+++ b/Data/Tables/ET3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Documents\GitHub\Training2\Data\NomineeModel\UserModel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\Data\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FC6173-0047-4E82-8133-8AC5AC2175B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F07AC8D-5036-445A-A046-2B63E4D25790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCB97CE2-5848-4162-A957-04FDB820B051}">
   <dimension ref="A1:X64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -609,7 +609,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>200226</v>
+        <v>201003</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -671,7 +671,7 @@
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(0,14)</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>200227</v>
+        <v>201004</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -747,7 +747,7 @@
       </c>
       <c r="W3">
         <f ca="1">RANDBETWEEN(0,14-W2)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>200228</v>
+        <v>201005</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -823,7 +823,7 @@
       </c>
       <c r="W4">
         <f ca="1">RANDBETWEEN(0,14-W3)</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>17</v>
       </c>
       <c r="C5">
-        <v>200229</v>
+        <v>201006</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -899,7 +899,7 @@
       </c>
       <c r="W5">
         <f ca="1">RANDBETWEEN(0,14)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>200230</v>
+        <v>201007</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -975,7 +975,7 @@
       </c>
       <c r="W6">
         <f ca="1">RANDBETWEEN(0,14-W5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>21</v>
       </c>
       <c r="C7">
-        <v>200231</v>
+        <v>201008</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -1051,7 +1051,7 @@
       </c>
       <c r="W7">
         <f ca="1">RANDBETWEEN(0,14-W6)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>23</v>
       </c>
       <c r="C8">
-        <v>200232</v>
+        <v>201009</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="W8">
         <f ca="1">RANDBETWEEN(0,14)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>25</v>
       </c>
       <c r="C9">
-        <v>200233</v>
+        <v>201010</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
@@ -1217,7 +1217,7 @@
         <v>27</v>
       </c>
       <c r="C10">
-        <v>200234</v>
+        <v>201011</v>
       </c>
       <c r="D10" t="s">
         <v>9</v>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="W10">
         <f ca="1">RANDBETWEEN(0,14-W9)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
